--- a/日本語勉強アプリケーション/001_テーブル設計書.xlsx
+++ b/日本語勉強アプリケーション/001_テーブル設計書.xlsx
@@ -22440,8 +22440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DX44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:P30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AM28" sqref="AM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
